--- a/DemoTest/testData/TestData.xlsx
+++ b/DemoTest/testData/TestData.xlsx
@@ -3,21 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\seleniumProjects\DemoTest\testData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881C592E-E12A-41CF-86F1-08ABEC62F011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AF1C9BAE-C300-420F-9E9E-D7AC123A8F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1635" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:P7"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -46,13 +43,72 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>admin4</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>admin5</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>admin6</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>admin7</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>admin8</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>admin9</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>admin10</t>
+  </si>
+  <si>
+    <t>p10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,14 +422,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.28515625" collapsed="false"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -404,4 +460,105 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE4EC9-F2DE-4B0C-A82E-F918AD595A9B}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>